--- a/DataStr.xlsx
+++ b/DataStr.xlsx
@@ -149,7 +149,7 @@
     <t>当只有右节点</t>
   </si>
   <si>
-    <t>当有两个节点</t>
+    <t>当有两个节点(用中序即可,两种)</t>
   </si>
   <si>
     <t>平衡二叉树</t>
@@ -307,12 +307,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -353,31 +353,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -392,7 +398,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,22 +407,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,7 +422,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,22 +452,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,44 +473,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,19 +548,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,103 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,7 +602,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,13 +638,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,7 +656,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,23 +904,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,17 +925,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -983,6 +939,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1013,11 +984,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,85 +1003,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1113,37 +1090,37 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1152,26 +1129,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1280,175 +1257,31 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -16730,13 +16563,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>386</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>389</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -16747,7 +16580,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12992100" y="68475225"/>
+          <a:off x="13020675" y="68475225"/>
           <a:ext cx="371475" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -16881,16 +16714,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>392</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>394</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16899,7 +16732,159 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13011150" y="69389625"/>
+          <a:off x="12306300" y="69618225"/>
+          <a:ext cx="371475" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>389</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="椭圆 134"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12630150" y="68941950"/>
           <a:ext cx="371475" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -16917,158 +16902,6 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>389</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>391</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="椭圆 134"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12630150" y="68961000"/>
-          <a:ext cx="371475" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -17337,16 +17170,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>406</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>405</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>408</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>407</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -17355,7 +17188,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13001625" y="71837550"/>
+          <a:off x="13039725" y="71704200"/>
           <a:ext cx="371475" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -17363,17 +17196,17 @@
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -17640,15 +17473,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>392</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>394</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -17657,7 +17490,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14116050" y="69446775"/>
+          <a:off x="14097000" y="69561075"/>
           <a:ext cx="371475" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -17666,16 +17499,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -18284,156 +18119,6 @@
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>395</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>397</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="椭圆 143"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12706350" y="69894450"/>
-          <a:ext cx="371475" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -19285,15 +18970,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="accent6">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -19563,15 +19248,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>403</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>405</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -19580,7 +19265,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14344650" y="71247000"/>
+          <a:off x="14354175" y="71237475"/>
           <a:ext cx="371475" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -19588,17 +19273,17 @@
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -19719,9 +19404,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>16510</xdr:colOff>
-      <xdr:row>390</xdr:row>
-      <xdr:rowOff>8255</xdr:rowOff>
+      <xdr:colOff>45085</xdr:colOff>
+      <xdr:row>389</xdr:row>
+      <xdr:rowOff>160655</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -19734,7 +19419,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="12947015" y="68800345"/>
-          <a:ext cx="99695" cy="216535"/>
+          <a:ext cx="128270" cy="197485"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -19760,7 +19445,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>278765</xdr:colOff>
+      <xdr:colOff>307340</xdr:colOff>
       <xdr:row>388</xdr:row>
       <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
@@ -19780,102 +19465,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13308965" y="68800345"/>
-          <a:ext cx="185420" cy="197485"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>602615</xdr:colOff>
-      <xdr:row>391</xdr:row>
-      <xdr:rowOff>106045</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>35560</xdr:colOff>
-      <xdr:row>392</xdr:row>
-      <xdr:rowOff>93980</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="163" name="直接连接符 162"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="135" idx="5"/>
-          <a:endCxn id="134" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12947015" y="69286120"/>
-          <a:ext cx="118745" cy="159385"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>548005</xdr:colOff>
-      <xdr:row>394</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>35560</xdr:colOff>
-      <xdr:row>395</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="164" name="直接连接符 163"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="134" idx="3"/>
-          <a:endCxn id="144" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="12892405" y="69714745"/>
-          <a:ext cx="173355" cy="179705"/>
+          <a:off x="13337540" y="68800345"/>
+          <a:ext cx="156845" cy="197485"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -19948,15 +19539,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>586105</xdr:colOff>
+      <xdr:colOff>567055</xdr:colOff>
       <xdr:row>391</xdr:row>
       <xdr:rowOff>29845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>35560</xdr:colOff>
-      <xdr:row>392</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -19968,8 +19559,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14302105" y="69209920"/>
-          <a:ext cx="135255" cy="236855"/>
+          <a:off x="14283055" y="69209920"/>
+          <a:ext cx="154305" cy="351155"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -20095,9 +19686,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>26035</xdr:colOff>
+      <xdr:colOff>64135</xdr:colOff>
       <xdr:row>406</xdr:row>
-      <xdr:rowOff>141605</xdr:rowOff>
+      <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -20110,7 +19701,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12947015" y="71629270"/>
-          <a:ext cx="109220" cy="264160"/>
+          <a:ext cx="147320" cy="130810"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -20183,7 +19774,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>128905</xdr:colOff>
+      <xdr:colOff>138430</xdr:colOff>
       <xdr:row>402</xdr:row>
       <xdr:rowOff>1270</xdr:rowOff>
     </xdr:from>
@@ -20191,7 +19782,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>245110</xdr:colOff>
       <xdr:row>403</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -20203,8 +19794,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14530705" y="71067295"/>
-          <a:ext cx="116205" cy="179705"/>
+          <a:off x="14540230" y="71067295"/>
+          <a:ext cx="106680" cy="170180"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -20787,13 +20378,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>398</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>399</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -20802,7 +20393,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12896850" y="70380225"/>
+          <a:off x="12896850" y="70427850"/>
           <a:ext cx="419100" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -20937,15 +20528,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>397</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>399</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -20954,7 +20545,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14649450" y="70323075"/>
+          <a:off x="14658975" y="70475475"/>
           <a:ext cx="419100" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -40283,7 +39874,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2838450" y="90754200"/>
+          <a:off x="2838450" y="90763725"/>
           <a:ext cx="438150" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -40587,7 +40178,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5629275" y="95116650"/>
+          <a:off x="5629275" y="95126175"/>
           <a:ext cx="419100" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -40640,7 +40231,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="97983675"/>
+          <a:off x="685800" y="97993200"/>
           <a:ext cx="419100" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -40792,7 +40383,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="98488500"/>
+          <a:off x="666750" y="98498025"/>
           <a:ext cx="419100" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -40944,7 +40535,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="99774375"/>
+          <a:off x="666750" y="99783900"/>
           <a:ext cx="419100" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -41076,6 +40667,1589 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="211" name="椭圆 210"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12954000" y="69589650"/>
+          <a:ext cx="371475" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="287" name="椭圆 286"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14773275" y="69561075"/>
+          <a:ext cx="371475" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>147955</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>86995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>340360</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="343" name="直接连接符 342"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="135" idx="3"/>
+          <a:endCxn id="134" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12492355" y="69267070"/>
+          <a:ext cx="192405" cy="351155"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="345" name="椭圆 344"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12630150" y="70065900"/>
+          <a:ext cx="371475" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="346" name="椭圆 345"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14497050" y="70008750"/>
+          <a:ext cx="371475" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>471805</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>664210</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="347" name="直接连接符 346"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="135" idx="4"/>
+          <a:endCxn id="211" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12816205" y="69322950"/>
+          <a:ext cx="192405" cy="322580"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>147955</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>397</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="348" name="直接连接符 347"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="134" idx="4"/>
+          <a:endCxn id="345" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12492355" y="69999225"/>
+          <a:ext cx="137795" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>12065</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>149860</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="349" name="直接连接符 348"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="139" idx="5"/>
+          <a:endCxn id="346" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14413865" y="69886195"/>
+          <a:ext cx="137795" cy="178435"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>195580</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>426085</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="350" name="直接连接符 349"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="287" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14597380" y="69265800"/>
+          <a:ext cx="230505" cy="351155"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>407</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="351" name="椭圆 350"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13496925" y="72085200"/>
+          <a:ext cx="371475" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>326390</xdr:colOff>
+      <xdr:row>407</xdr:row>
+      <xdr:rowOff>106045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>409</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="352" name="直接连接符 351"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="5"/>
+          <a:endCxn id="351" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13356590" y="72029320"/>
+          <a:ext cx="140335" cy="246380"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="353" name="椭圆 352"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14087475" y="71789925"/>
+          <a:ext cx="371475" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="354" name="椭圆 353"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="371475" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="355" name="椭圆 354"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14678025" y="71770875"/>
+          <a:ext cx="371475" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>557530</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>153670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>6985</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="356" name="直接连接符 355"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="160" idx="3"/>
+          <a:endCxn id="353" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14273530" y="71562595"/>
+          <a:ext cx="135255" cy="227330"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>269240</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>153670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>462280</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="357" name="直接连接符 356"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="160" idx="5"/>
+          <a:endCxn id="355" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14671040" y="71562595"/>
+          <a:ext cx="193040" cy="208280"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -41084,7 +42258,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="5C616C"/>
+        <a:sysClr val="windowText" lastClr="3B3E45"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -41340,8 +42514,8 @@
   <sheetPr/>
   <dimension ref="A7:Z573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A533" workbookViewId="0">
-      <selection activeCell="O560" sqref="O560"/>
+    <sheetView tabSelected="1" topLeftCell="D376" workbookViewId="0">
+      <selection activeCell="AG384" sqref="AG384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -45827,30 +47001,30 @@
       <c r="G389" s="11"/>
     </row>
     <row r="414" spans="3:12">
-      <c r="C414" s="36" t="s">
+      <c r="C414" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D414" s="37"/>
-      <c r="F414" s="36" t="s">
+      <c r="D414" s="1"/>
+      <c r="F414" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G414" s="38"/>
-      <c r="H414" s="38"/>
-      <c r="I414" s="38"/>
-      <c r="J414" s="38"/>
-      <c r="K414" s="38"/>
-      <c r="L414" s="38"/>
+      <c r="G414" s="1"/>
+      <c r="H414" s="1"/>
+      <c r="I414" s="1"/>
+      <c r="J414" s="1"/>
+      <c r="K414" s="1"/>
+      <c r="L414" s="1"/>
     </row>
     <row r="415" spans="3:12">
-      <c r="C415" s="37"/>
-      <c r="D415" s="37"/>
-      <c r="F415" s="38"/>
-      <c r="G415" s="38"/>
-      <c r="H415" s="38"/>
-      <c r="I415" s="38"/>
-      <c r="J415" s="38"/>
-      <c r="K415" s="38"/>
-      <c r="L415" s="38"/>
+      <c r="C415" s="1"/>
+      <c r="D415" s="1"/>
+      <c r="F415" s="1"/>
+      <c r="G415" s="1"/>
+      <c r="H415" s="1"/>
+      <c r="I415" s="1"/>
+      <c r="J415" s="1"/>
+      <c r="K415" s="1"/>
+      <c r="L415" s="1"/>
     </row>
     <row r="417" spans="3:7">
       <c r="C417" s="11">
@@ -45877,1558 +47051,1174 @@
       <c r="G418" s="11"/>
     </row>
     <row r="430" spans="3:4">
-      <c r="C430" s="36" t="s">
+      <c r="C430" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D430" s="37"/>
+      <c r="D430" s="1"/>
     </row>
     <row r="431" spans="3:4">
-      <c r="C431" s="37"/>
-      <c r="D431" s="37"/>
+      <c r="C431" s="1"/>
+      <c r="D431" s="1"/>
     </row>
     <row r="432" spans="11:12">
-      <c r="K432" s="36" t="s">
+      <c r="K432" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L432" s="37"/>
+      <c r="L432" s="1"/>
     </row>
     <row r="433" spans="3:12">
-      <c r="C433" s="38" t="s">
+      <c r="C433" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F433" s="36" t="s">
+      <c r="F433" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K433" s="37"/>
-      <c r="L433" s="37"/>
+      <c r="K433" s="1"/>
+      <c r="L433" s="1"/>
     </row>
     <row r="434" spans="3:14">
-      <c r="C434" s="38"/>
-      <c r="F434" s="37"/>
-      <c r="K434" s="36" t="s">
+      <c r="C434" s="1"/>
+      <c r="F434" s="1"/>
+      <c r="K434" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N434" s="36" t="s">
+      <c r="N434" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="435" spans="6:16">
-      <c r="F435" s="40"/>
-      <c r="G435" s="40"/>
-      <c r="H435" s="40"/>
-      <c r="J435" s="40"/>
-      <c r="K435" s="38"/>
-      <c r="L435" s="40"/>
-      <c r="N435" s="38"/>
-      <c r="O435" s="40"/>
-      <c r="P435" s="40"/>
-    </row>
-    <row r="436" spans="6:16">
-      <c r="F436" s="40"/>
-      <c r="G436" s="40"/>
-      <c r="H436" s="40"/>
-      <c r="J436" s="40"/>
-      <c r="K436" s="40"/>
-      <c r="L436" s="40"/>
-      <c r="N436" s="40"/>
-      <c r="O436" s="40"/>
-      <c r="P436" s="40"/>
-    </row>
-    <row r="437" spans="6:16">
-      <c r="F437" s="40"/>
-      <c r="G437" s="40"/>
-      <c r="H437" s="40"/>
-      <c r="J437" s="40"/>
-      <c r="K437" s="40"/>
-      <c r="L437" s="40"/>
-      <c r="N437" s="40"/>
-      <c r="O437" s="40"/>
-      <c r="P437" s="40"/>
-    </row>
-    <row r="438" spans="6:16">
-      <c r="F438" s="40"/>
-      <c r="G438" s="40"/>
-      <c r="H438" s="40"/>
-      <c r="J438" s="40"/>
-      <c r="K438" s="40"/>
-      <c r="L438" s="40"/>
-      <c r="N438" s="40"/>
-      <c r="O438" s="40"/>
-      <c r="P438" s="40"/>
-    </row>
-    <row r="439" spans="6:16">
-      <c r="F439" s="40"/>
-      <c r="G439" s="40"/>
-      <c r="H439" s="40"/>
-      <c r="J439" s="40"/>
-      <c r="K439" s="40"/>
-      <c r="L439" s="40"/>
-      <c r="N439" s="40"/>
-      <c r="O439" s="40"/>
-      <c r="P439" s="40"/>
-    </row>
-    <row r="440" spans="6:16">
-      <c r="F440" s="40"/>
-      <c r="G440" s="40"/>
-      <c r="H440" s="40"/>
-      <c r="J440" s="40"/>
-      <c r="K440" s="40"/>
-      <c r="L440" s="40"/>
-      <c r="N440" s="40"/>
-      <c r="O440" s="40"/>
-      <c r="P440" s="40"/>
-    </row>
-    <row r="441" spans="6:16">
-      <c r="F441" s="40"/>
-      <c r="G441" s="40"/>
-      <c r="H441" s="40"/>
-      <c r="J441" s="40"/>
-      <c r="K441" s="40"/>
-      <c r="L441" s="40"/>
-      <c r="N441" s="40"/>
-      <c r="O441" s="40"/>
-      <c r="P441" s="40"/>
-    </row>
-    <row r="442" spans="6:16">
-      <c r="F442" s="40"/>
-      <c r="G442" s="40"/>
-      <c r="H442" s="40"/>
-      <c r="J442" s="40"/>
-      <c r="K442" s="40"/>
-      <c r="L442" s="40"/>
-      <c r="N442" s="40"/>
-      <c r="O442" s="40"/>
-      <c r="P442" s="40"/>
+    <row r="435" spans="11:14">
+      <c r="K435" s="1"/>
+      <c r="N435" s="1"/>
     </row>
     <row r="444" spans="4:4">
-      <c r="D444" s="39"/>
+      <c r="D444" s="2"/>
     </row>
     <row r="445" spans="4:4">
-      <c r="D445" s="39"/>
+      <c r="D445" s="2"/>
     </row>
-    <row r="446" spans="7:9">
-      <c r="G446" s="40"/>
-      <c r="H446" s="40"/>
-      <c r="I446" s="40"/>
+    <row r="453" spans="3:3">
+      <c r="C453" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="447" spans="7:19">
-      <c r="G447" s="40"/>
-      <c r="H447" s="40"/>
-      <c r="I447" s="40"/>
-      <c r="Q447" s="40"/>
-      <c r="R447" s="40"/>
-      <c r="S447" s="40"/>
+    <row r="454" spans="3:17">
+      <c r="C454" s="1"/>
+      <c r="F454" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G454" s="1"/>
+      <c r="L454" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P454" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q454" s="1"/>
     </row>
-    <row r="448" spans="7:19">
-      <c r="G448" s="40"/>
-      <c r="H448" s="40"/>
-      <c r="I448" s="40"/>
-      <c r="O448" s="40"/>
-      <c r="P448" s="40"/>
-      <c r="Q448" s="40"/>
-      <c r="R448" s="40"/>
-      <c r="S448" s="40"/>
-    </row>
-    <row r="449" spans="3:19">
-      <c r="C449" s="40"/>
-      <c r="D449" s="40"/>
-      <c r="E449" s="40"/>
-      <c r="G449" s="40"/>
-      <c r="H449" s="40"/>
-      <c r="I449" s="40"/>
-      <c r="J449" s="40"/>
-      <c r="O449" s="40"/>
-      <c r="P449" s="40"/>
-      <c r="Q449" s="40"/>
-      <c r="R449" s="40"/>
-      <c r="S449" s="40"/>
-    </row>
-    <row r="450" spans="3:19">
-      <c r="C450" s="40"/>
-      <c r="D450" s="40"/>
-      <c r="E450" s="40"/>
-      <c r="G450" s="40"/>
-      <c r="H450" s="40"/>
-      <c r="I450" s="40"/>
-      <c r="J450" s="40"/>
-      <c r="L450" s="40"/>
-      <c r="M450" s="40"/>
-      <c r="N450" s="40"/>
-      <c r="O450" s="40"/>
-      <c r="P450" s="40"/>
-      <c r="Q450" s="40"/>
-      <c r="R450" s="40"/>
-      <c r="S450" s="40"/>
-    </row>
-    <row r="451" spans="3:19">
-      <c r="C451" s="40"/>
-      <c r="D451" s="40"/>
-      <c r="E451" s="40"/>
-      <c r="G451" s="40"/>
-      <c r="H451" s="40"/>
-      <c r="I451" s="40"/>
-      <c r="J451" s="40"/>
-      <c r="L451" s="40"/>
-      <c r="M451" s="40"/>
-      <c r="N451" s="40"/>
-      <c r="O451" s="40"/>
-      <c r="P451" s="40"/>
-      <c r="Q451" s="40"/>
-      <c r="R451" s="40"/>
-      <c r="S451" s="40"/>
-    </row>
-    <row r="452" spans="3:19">
-      <c r="C452" s="40"/>
-      <c r="D452" s="40"/>
-      <c r="E452" s="40"/>
-      <c r="G452" s="40"/>
-      <c r="H452" s="40"/>
-      <c r="I452" s="40"/>
-      <c r="J452" s="40"/>
-      <c r="L452" s="40"/>
-      <c r="M452" s="40"/>
-      <c r="N452" s="40"/>
-      <c r="O452" s="40"/>
-      <c r="P452" s="40"/>
-      <c r="Q452" s="40"/>
-      <c r="R452" s="40"/>
-      <c r="S452" s="40"/>
-    </row>
-    <row r="453" spans="3:19">
-      <c r="C453" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D453" s="40"/>
-      <c r="E453" s="40"/>
-      <c r="G453" s="40"/>
-      <c r="H453" s="40"/>
-      <c r="I453" s="40"/>
-      <c r="J453" s="40"/>
-      <c r="L453" s="40"/>
-      <c r="M453" s="40"/>
-      <c r="N453" s="40"/>
-      <c r="O453" s="40"/>
-      <c r="P453" s="40"/>
-      <c r="Q453" s="40"/>
-      <c r="R453" s="40"/>
-      <c r="S453" s="40"/>
-    </row>
-    <row r="454" spans="3:19">
-      <c r="C454" s="38"/>
-      <c r="D454" s="40"/>
-      <c r="E454" s="40"/>
-      <c r="F454" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G454" s="38"/>
-      <c r="H454" s="40"/>
-      <c r="I454" s="40"/>
-      <c r="J454" s="40"/>
-      <c r="L454" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="M454" s="40"/>
-      <c r="N454" s="40"/>
-      <c r="O454" s="40"/>
-      <c r="P454" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q454" s="38"/>
-      <c r="R454" s="40"/>
-      <c r="S454" s="40"/>
-    </row>
-    <row r="455" spans="3:19">
-      <c r="C455" s="40"/>
-      <c r="D455" s="40"/>
-      <c r="E455" s="40"/>
-      <c r="F455" s="37"/>
-      <c r="G455" s="38"/>
-      <c r="H455" s="40"/>
-      <c r="I455" s="40"/>
-      <c r="J455" s="40"/>
-      <c r="L455" s="38"/>
-      <c r="M455" s="40"/>
-      <c r="N455" s="40"/>
-      <c r="O455" s="40"/>
-      <c r="P455" s="38"/>
-      <c r="Q455" s="38"/>
-      <c r="R455" s="40"/>
-      <c r="S455" s="40"/>
-    </row>
-    <row r="456" spans="3:14">
-      <c r="C456" s="40"/>
-      <c r="D456" s="40"/>
-      <c r="E456" s="40"/>
-      <c r="G456" s="40"/>
-      <c r="H456" s="40"/>
-      <c r="I456" s="40"/>
-      <c r="J456" s="40"/>
-      <c r="L456" s="40"/>
-      <c r="M456" s="40"/>
-      <c r="N456" s="40"/>
-    </row>
-    <row r="457" spans="7:14">
-      <c r="G457" s="40"/>
-      <c r="H457" s="40"/>
-      <c r="I457" s="40"/>
-      <c r="L457" s="40"/>
-      <c r="M457" s="40"/>
-      <c r="N457" s="40"/>
-    </row>
-    <row r="458" spans="7:9">
-      <c r="G458" s="40"/>
-      <c r="H458" s="40"/>
-      <c r="I458" s="40"/>
+    <row r="455" spans="6:17">
+      <c r="F455" s="1"/>
+      <c r="G455" s="1"/>
+      <c r="L455" s="1"/>
+      <c r="P455" s="1"/>
+      <c r="Q455" s="1"/>
     </row>
     <row r="459" spans="3:14">
-      <c r="C459" s="36" t="s">
+      <c r="C459" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D459" s="37"/>
-      <c r="M459" s="36" t="s">
+      <c r="D459" s="1"/>
+      <c r="M459" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N459" s="37"/>
+      <c r="N459" s="1"/>
     </row>
     <row r="460" spans="2:14">
-      <c r="B460" s="41"/>
-      <c r="C460" s="38"/>
-      <c r="D460" s="37"/>
-      <c r="M460" s="37"/>
-      <c r="N460" s="37"/>
+      <c r="B460" s="5"/>
+      <c r="C460" s="1"/>
+      <c r="D460" s="1"/>
+      <c r="M460" s="1"/>
+      <c r="N460" s="1"/>
     </row>
     <row r="461" spans="2:11">
-      <c r="B461" s="41"/>
-      <c r="C461" s="41"/>
-      <c r="F461" s="50"/>
-      <c r="G461" s="51" t="s">
+      <c r="B461" s="5"/>
+      <c r="C461" s="5"/>
+      <c r="F461" s="38"/>
+      <c r="G461" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="H461" s="51" t="s">
+      <c r="H461" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="I461" s="51" t="s">
+      <c r="I461" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="J461" s="51" t="s">
+      <c r="J461" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="K461" s="51" t="s">
+      <c r="K461" s="39" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="462" spans="6:17">
-      <c r="F462" s="50"/>
-      <c r="G462" s="52"/>
-      <c r="H462" s="52"/>
-      <c r="I462" s="52"/>
-      <c r="J462" s="52"/>
-      <c r="K462" s="52"/>
-      <c r="M462" s="51" t="s">
+      <c r="F462" s="38"/>
+      <c r="G462" s="39"/>
+      <c r="H462" s="39"/>
+      <c r="I462" s="39"/>
+      <c r="J462" s="39"/>
+      <c r="K462" s="39"/>
+      <c r="M462" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="N462" s="60"/>
-      <c r="O462" s="51" t="s">
+      <c r="N462" s="6"/>
+      <c r="O462" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="P462" s="60"/>
-      <c r="Q462" s="51" t="s">
+      <c r="P462" s="6"/>
+      <c r="Q462" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="463" spans="6:17">
-      <c r="F463" s="51" t="s">
+      <c r="F463" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G463" s="52">
+      <c r="G463" s="39">
         <v>0</v>
       </c>
-      <c r="H463" s="53">
+      <c r="H463" s="39">
         <v>1</v>
       </c>
-      <c r="I463" s="53">
+      <c r="I463" s="39">
         <v>1</v>
       </c>
-      <c r="J463" s="52">
+      <c r="J463" s="39">
         <v>0</v>
       </c>
-      <c r="K463" s="53">
+      <c r="K463" s="39">
         <v>0</v>
       </c>
-      <c r="M463" s="52"/>
-      <c r="N463" s="60"/>
-      <c r="O463" s="52"/>
-      <c r="P463" s="60"/>
-      <c r="Q463" s="52"/>
+      <c r="M463" s="39"/>
+      <c r="N463" s="6"/>
+      <c r="O463" s="39"/>
+      <c r="P463" s="6"/>
+      <c r="Q463" s="39"/>
     </row>
     <row r="464" spans="6:17">
-      <c r="F464" s="52"/>
-      <c r="G464" s="52"/>
-      <c r="H464" s="53"/>
-      <c r="I464" s="53"/>
-      <c r="J464" s="52"/>
-      <c r="K464" s="53"/>
-      <c r="M464" s="51" t="s">
+      <c r="F464" s="39"/>
+      <c r="G464" s="39"/>
+      <c r="H464" s="39"/>
+      <c r="I464" s="39"/>
+      <c r="J464" s="39"/>
+      <c r="K464" s="39"/>
+      <c r="M464" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N464" s="60"/>
-      <c r="O464" s="51" t="s">
+      <c r="N464" s="6"/>
+      <c r="O464" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="P464" s="60"/>
-      <c r="Q464" s="60"/>
+      <c r="P464" s="6"/>
+      <c r="Q464" s="6"/>
     </row>
     <row r="465" spans="6:17">
-      <c r="F465" s="51" t="s">
+      <c r="F465" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="G465" s="53">
+      <c r="G465" s="39">
         <v>1</v>
       </c>
-      <c r="H465" s="53">
+      <c r="H465" s="39">
         <v>0</v>
       </c>
-      <c r="I465" s="53">
+      <c r="I465" s="39">
         <v>0</v>
       </c>
-      <c r="J465" s="53">
+      <c r="J465" s="39">
         <v>1</v>
       </c>
-      <c r="K465" s="53">
+      <c r="K465" s="39">
         <v>0</v>
       </c>
-      <c r="M465" s="52"/>
-      <c r="N465" s="60"/>
-      <c r="O465" s="52"/>
-      <c r="P465" s="60"/>
-      <c r="Q465" s="60"/>
+      <c r="M465" s="39"/>
+      <c r="N465" s="6"/>
+      <c r="O465" s="39"/>
+      <c r="P465" s="6"/>
+      <c r="Q465" s="6"/>
     </row>
     <row r="466" spans="6:17">
-      <c r="F466" s="52"/>
-      <c r="G466" s="53"/>
-      <c r="H466" s="53"/>
-      <c r="I466" s="53"/>
-      <c r="J466" s="53"/>
-      <c r="K466" s="53"/>
-      <c r="M466" s="51" t="s">
+      <c r="F466" s="39"/>
+      <c r="G466" s="39"/>
+      <c r="H466" s="39"/>
+      <c r="I466" s="39"/>
+      <c r="J466" s="39"/>
+      <c r="K466" s="39"/>
+      <c r="M466" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="N466" s="60"/>
-      <c r="O466" s="51" t="s">
+      <c r="N466" s="6"/>
+      <c r="O466" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="P466" s="60"/>
-      <c r="Q466" s="51" t="s">
+      <c r="P466" s="6"/>
+      <c r="Q466" s="39" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="467" spans="6:17">
-      <c r="F467" s="51" t="s">
+      <c r="F467" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="G467" s="53">
+      <c r="G467" s="39">
         <v>1</v>
       </c>
-      <c r="H467" s="53">
+      <c r="H467" s="39">
         <v>0</v>
       </c>
-      <c r="I467" s="53">
+      <c r="I467" s="39">
         <v>0</v>
       </c>
-      <c r="J467" s="53">
+      <c r="J467" s="39">
         <v>1</v>
       </c>
-      <c r="K467" s="53">
+      <c r="K467" s="39">
         <v>1</v>
       </c>
-      <c r="M467" s="52"/>
-      <c r="N467" s="60"/>
-      <c r="O467" s="52"/>
-      <c r="P467" s="60"/>
-      <c r="Q467" s="53"/>
+      <c r="M467" s="39"/>
+      <c r="N467" s="6"/>
+      <c r="O467" s="39"/>
+      <c r="P467" s="6"/>
+      <c r="Q467" s="39"/>
     </row>
     <row r="468" spans="6:17">
-      <c r="F468" s="52"/>
-      <c r="G468" s="53"/>
-      <c r="H468" s="53"/>
-      <c r="I468" s="53"/>
-      <c r="J468" s="53"/>
-      <c r="K468" s="53"/>
-      <c r="M468" s="51" t="s">
+      <c r="F468" s="39"/>
+      <c r="G468" s="39"/>
+      <c r="H468" s="39"/>
+      <c r="I468" s="39"/>
+      <c r="J468" s="39"/>
+      <c r="K468" s="39"/>
+      <c r="M468" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="N468" s="60"/>
-      <c r="O468" s="60"/>
-      <c r="P468" s="60"/>
-      <c r="Q468" s="60"/>
+      <c r="N468" s="6"/>
+      <c r="O468" s="6"/>
+      <c r="P468" s="6"/>
+      <c r="Q468" s="6"/>
     </row>
     <row r="469" spans="6:17">
-      <c r="F469" s="51" t="s">
+      <c r="F469" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="G469" s="53">
+      <c r="G469" s="39">
         <v>0</v>
       </c>
-      <c r="H469" s="53">
+      <c r="H469" s="39">
         <v>1</v>
       </c>
-      <c r="I469" s="53">
+      <c r="I469" s="39">
         <v>1</v>
       </c>
-      <c r="J469" s="53">
+      <c r="J469" s="39">
         <v>0</v>
       </c>
-      <c r="K469" s="53">
+      <c r="K469" s="39">
         <v>0</v>
       </c>
-      <c r="M469" s="52"/>
-      <c r="N469" s="60"/>
-      <c r="O469" s="60"/>
-      <c r="P469" s="60"/>
-      <c r="Q469" s="60"/>
+      <c r="M469" s="39"/>
+      <c r="N469" s="6"/>
+      <c r="O469" s="6"/>
+      <c r="P469" s="6"/>
+      <c r="Q469" s="6"/>
     </row>
     <row r="470" spans="6:17">
-      <c r="F470" s="52"/>
-      <c r="G470" s="53"/>
-      <c r="H470" s="53"/>
-      <c r="I470" s="53"/>
-      <c r="J470" s="53"/>
-      <c r="K470" s="53"/>
-      <c r="M470" s="51" t="s">
+      <c r="F470" s="39"/>
+      <c r="G470" s="39"/>
+      <c r="H470" s="39"/>
+      <c r="I470" s="39"/>
+      <c r="J470" s="39"/>
+      <c r="K470" s="39"/>
+      <c r="M470" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="N470" s="60"/>
-      <c r="O470" s="60"/>
-      <c r="P470" s="60"/>
-      <c r="Q470" s="60"/>
+      <c r="N470" s="6"/>
+      <c r="O470" s="6"/>
+      <c r="P470" s="6"/>
+      <c r="Q470" s="6"/>
     </row>
     <row r="471" spans="6:17">
-      <c r="F471" s="51" t="s">
+      <c r="F471" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="G471" s="53">
+      <c r="G471" s="39">
         <v>0</v>
       </c>
-      <c r="H471" s="53">
+      <c r="H471" s="39">
         <v>0</v>
       </c>
-      <c r="I471" s="53">
+      <c r="I471" s="39">
         <v>1</v>
       </c>
-      <c r="J471" s="53">
+      <c r="J471" s="39">
         <v>0</v>
       </c>
-      <c r="K471" s="53">
+      <c r="K471" s="39">
         <v>0</v>
       </c>
-      <c r="M471" s="52"/>
-      <c r="N471" s="60"/>
-      <c r="O471" s="60"/>
-      <c r="P471" s="60"/>
-      <c r="Q471" s="60"/>
+      <c r="M471" s="39"/>
+      <c r="N471" s="6"/>
+      <c r="O471" s="6"/>
+      <c r="P471" s="6"/>
+      <c r="Q471" s="6"/>
     </row>
     <row r="472" spans="6:13">
-      <c r="F472" s="52"/>
-      <c r="G472" s="53"/>
-      <c r="H472" s="53"/>
-      <c r="I472" s="53"/>
-      <c r="J472" s="53"/>
-      <c r="K472" s="53"/>
-      <c r="M472" s="41"/>
+      <c r="F472" s="39"/>
+      <c r="G472" s="39"/>
+      <c r="H472" s="39"/>
+      <c r="I472" s="39"/>
+      <c r="J472" s="39"/>
+      <c r="K472" s="39"/>
+      <c r="M472" s="5"/>
     </row>
     <row r="473" spans="13:13">
-      <c r="M473" s="41"/>
+      <c r="M473" s="5"/>
     </row>
     <row r="476" spans="3:4">
-      <c r="C476" s="36" t="s">
+      <c r="C476" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D476" s="37"/>
+      <c r="D476" s="1"/>
     </row>
     <row r="477" spans="3:13">
-      <c r="C477" s="37"/>
-      <c r="D477" s="37"/>
-      <c r="L477" s="36" t="s">
+      <c r="C477" s="1"/>
+      <c r="D477" s="1"/>
+      <c r="L477" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M477" s="37"/>
+      <c r="M477" s="1"/>
     </row>
     <row r="478" spans="12:13">
-      <c r="L478" s="37"/>
-      <c r="M478" s="37"/>
+      <c r="L478" s="1"/>
+      <c r="M478" s="1"/>
     </row>
     <row r="479" spans="6:10">
-      <c r="F479" s="36" t="s">
+      <c r="F479" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G479" s="37"/>
-      <c r="H479" s="37"/>
-      <c r="I479" s="37"/>
-      <c r="J479" s="37"/>
+      <c r="G479" s="1"/>
+      <c r="H479" s="1"/>
+      <c r="I479" s="1"/>
+      <c r="J479" s="1"/>
     </row>
-    <row r="480" spans="6:20">
-      <c r="F480" s="37"/>
-      <c r="G480" s="37"/>
-      <c r="H480" s="37"/>
-      <c r="I480" s="37"/>
-      <c r="J480" s="37"/>
-      <c r="L480" s="40"/>
-      <c r="M480" s="40"/>
-      <c r="N480" s="40"/>
-      <c r="O480" s="40"/>
-      <c r="P480" s="40"/>
-      <c r="Q480" s="40"/>
-      <c r="R480" s="40"/>
-      <c r="S480" s="40"/>
-      <c r="T480" s="40"/>
+    <row r="480" spans="6:10">
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+      <c r="H480" s="1"/>
+      <c r="I480" s="1"/>
+      <c r="J480" s="1"/>
     </row>
-    <row r="481" spans="12:20">
-      <c r="L481" s="40"/>
-      <c r="M481" s="40"/>
-      <c r="N481" s="40"/>
-      <c r="O481" s="40"/>
-      <c r="P481" s="36" t="s">
+    <row r="481" spans="16:20">
+      <c r="P481" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q481" s="38"/>
-      <c r="R481" s="38"/>
-      <c r="S481" s="38"/>
-      <c r="T481" s="38"/>
+      <c r="Q481" s="1"/>
+      <c r="R481" s="1"/>
+      <c r="S481" s="1"/>
+      <c r="T481" s="1"/>
     </row>
-    <row r="482" spans="12:20">
-      <c r="L482" s="40"/>
-      <c r="M482" s="40"/>
-      <c r="N482" s="40"/>
-      <c r="O482" s="40"/>
-      <c r="P482" s="38"/>
-      <c r="Q482" s="38"/>
-      <c r="R482" s="38"/>
-      <c r="S482" s="38"/>
-      <c r="T482" s="38"/>
+    <row r="482" spans="16:20">
+      <c r="P482" s="1"/>
+      <c r="Q482" s="1"/>
+      <c r="R482" s="1"/>
+      <c r="S482" s="1"/>
+      <c r="T482" s="1"/>
     </row>
-    <row r="483" spans="12:20">
-      <c r="L483" s="40"/>
-      <c r="M483" s="40"/>
-      <c r="N483" s="40"/>
-      <c r="O483" s="40"/>
-      <c r="P483" s="40"/>
-      <c r="Q483" s="40"/>
-      <c r="R483" s="40"/>
-      <c r="S483" s="40"/>
-      <c r="T483" s="40"/>
+    <row r="484" spans="6:10">
+      <c r="F484" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G484" s="1"/>
+      <c r="H484" s="1"/>
+      <c r="I484" s="1"/>
+      <c r="J484" s="1"/>
     </row>
-    <row r="484" spans="6:20">
-      <c r="F484" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G484" s="37"/>
-      <c r="H484" s="37"/>
-      <c r="I484" s="37"/>
-      <c r="J484" s="37"/>
-      <c r="L484" s="40"/>
-      <c r="M484" s="40"/>
-      <c r="N484" s="40"/>
-      <c r="O484" s="40"/>
-      <c r="P484" s="40"/>
-      <c r="Q484" s="40"/>
-      <c r="R484" s="40"/>
-      <c r="S484" s="40"/>
-      <c r="T484" s="40"/>
+    <row r="485" spans="6:10">
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+      <c r="H485" s="1"/>
+      <c r="I485" s="1"/>
+      <c r="J485" s="1"/>
     </row>
-    <row r="485" spans="6:20">
-      <c r="F485" s="37"/>
-      <c r="G485" s="37"/>
-      <c r="H485" s="37"/>
-      <c r="I485" s="37"/>
-      <c r="J485" s="37"/>
-      <c r="L485" s="40"/>
-      <c r="M485" s="40"/>
-      <c r="N485" s="40"/>
-      <c r="O485" s="40"/>
-      <c r="P485" s="40"/>
-      <c r="Q485" s="40"/>
-      <c r="R485" s="40"/>
-      <c r="S485" s="40"/>
-      <c r="T485" s="40"/>
+    <row r="486" spans="16:20">
+      <c r="P486" s="40"/>
+      <c r="Q486" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R486" s="1"/>
+      <c r="S486" s="1"/>
+      <c r="T486" s="1"/>
     </row>
-    <row r="486" spans="12:20">
-      <c r="L486" s="40"/>
-      <c r="M486" s="40"/>
-      <c r="N486" s="40"/>
-      <c r="O486" s="40"/>
-      <c r="P486" s="61"/>
-      <c r="Q486" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="R486" s="36"/>
-      <c r="S486" s="36"/>
-      <c r="T486" s="36"/>
+    <row r="487" spans="16:20">
+      <c r="P487" s="40"/>
+      <c r="Q487" s="1"/>
+      <c r="R487" s="1"/>
+      <c r="S487" s="1"/>
+      <c r="T487" s="1"/>
     </row>
-    <row r="487" spans="12:20">
-      <c r="L487" s="40"/>
-      <c r="M487" s="40"/>
-      <c r="N487" s="40"/>
-      <c r="O487" s="40"/>
-      <c r="P487" s="61"/>
-      <c r="Q487" s="36"/>
-      <c r="R487" s="36"/>
-      <c r="S487" s="36"/>
-      <c r="T487" s="36"/>
+    <row r="490" spans="18:21">
+      <c r="R490" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S490" s="1"/>
+      <c r="T490" s="1"/>
+      <c r="U490" s="1"/>
     </row>
-    <row r="488" spans="12:20">
-      <c r="L488" s="40"/>
-      <c r="M488" s="40"/>
-      <c r="N488" s="40"/>
-      <c r="O488" s="40"/>
-      <c r="P488" s="40"/>
-      <c r="Q488" s="40"/>
-      <c r="R488" s="40"/>
-      <c r="S488" s="40"/>
-      <c r="T488" s="40"/>
+    <row r="491" spans="18:21">
+      <c r="R491" s="1"/>
+      <c r="S491" s="1"/>
+      <c r="T491" s="1"/>
+      <c r="U491" s="1"/>
     </row>
-    <row r="489" spans="12:20">
-      <c r="L489" s="40"/>
-      <c r="M489" s="40"/>
-      <c r="N489" s="40"/>
-      <c r="O489" s="40"/>
-      <c r="P489" s="40"/>
-      <c r="Q489" s="40"/>
-      <c r="R489" s="40"/>
-      <c r="S489" s="40"/>
-      <c r="T489" s="40"/>
+    <row r="494" spans="18:21">
+      <c r="R494" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S494" s="1"/>
+      <c r="T494" s="1"/>
+      <c r="U494" s="1"/>
     </row>
-    <row r="490" spans="12:21">
-      <c r="L490" s="40"/>
-      <c r="M490" s="40"/>
-      <c r="N490" s="40"/>
-      <c r="O490" s="40"/>
-      <c r="P490" s="40"/>
-      <c r="Q490" s="40"/>
-      <c r="R490" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="S490" s="38"/>
-      <c r="T490" s="38"/>
-      <c r="U490" s="37"/>
-    </row>
-    <row r="491" spans="12:21">
-      <c r="L491" s="40"/>
-      <c r="M491" s="40"/>
-      <c r="N491" s="40"/>
-      <c r="O491" s="40"/>
-      <c r="P491" s="40"/>
-      <c r="Q491" s="40"/>
-      <c r="R491" s="38"/>
-      <c r="S491" s="38"/>
-      <c r="T491" s="38"/>
-      <c r="U491" s="37"/>
-    </row>
-    <row r="492" spans="12:20">
-      <c r="L492" s="40"/>
-      <c r="M492" s="40"/>
-      <c r="N492" s="40"/>
-      <c r="O492" s="40"/>
-      <c r="P492" s="40"/>
-      <c r="Q492" s="40"/>
-      <c r="R492" s="40"/>
-      <c r="S492" s="40"/>
-      <c r="T492" s="40"/>
-    </row>
-    <row r="493" spans="12:20">
-      <c r="L493" s="40"/>
-      <c r="M493" s="40"/>
-      <c r="N493" s="40"/>
-      <c r="O493" s="40"/>
-      <c r="P493" s="40"/>
-      <c r="Q493" s="40"/>
-      <c r="R493" s="40"/>
-      <c r="S493" s="40"/>
-      <c r="T493" s="40"/>
-    </row>
-    <row r="494" spans="12:21">
-      <c r="L494" s="40"/>
-      <c r="M494" s="40"/>
-      <c r="N494" s="40"/>
-      <c r="O494" s="40"/>
-      <c r="P494" s="40"/>
-      <c r="Q494" s="40"/>
-      <c r="R494" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="S494" s="38"/>
-      <c r="T494" s="38"/>
-      <c r="U494" s="38"/>
-    </row>
-    <row r="495" spans="12:21">
-      <c r="L495" s="40"/>
-      <c r="M495" s="40"/>
-      <c r="N495" s="40"/>
-      <c r="O495" s="40"/>
-      <c r="P495" s="40"/>
-      <c r="Q495" s="40"/>
-      <c r="R495" s="38"/>
-      <c r="S495" s="38"/>
-      <c r="T495" s="38"/>
-      <c r="U495" s="38"/>
-    </row>
-    <row r="496" spans="12:21">
-      <c r="L496" s="40"/>
-      <c r="M496" s="40"/>
-      <c r="N496" s="40"/>
-      <c r="O496" s="40"/>
-      <c r="P496" s="40"/>
-      <c r="Q496" s="40"/>
-      <c r="R496" s="40"/>
-      <c r="S496" s="40"/>
-      <c r="T496" s="40"/>
-      <c r="U496" s="40"/>
+    <row r="495" spans="18:21">
+      <c r="R495" s="1"/>
+      <c r="S495" s="1"/>
+      <c r="T495" s="1"/>
+      <c r="U495" s="1"/>
     </row>
     <row r="504" spans="3:4">
-      <c r="C504" s="36" t="s">
+      <c r="C504" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D504" s="37"/>
+      <c r="D504" s="1"/>
     </row>
     <row r="505" spans="3:12">
-      <c r="C505" s="37"/>
-      <c r="D505" s="37"/>
-      <c r="K505" s="36" t="s">
+      <c r="C505" s="1"/>
+      <c r="D505" s="1"/>
+      <c r="K505" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L505" s="37"/>
+      <c r="L505" s="1"/>
     </row>
     <row r="506" ht="14.25" spans="11:12">
-      <c r="K506" s="37"/>
-      <c r="L506" s="37"/>
+      <c r="K506" s="1"/>
+      <c r="L506" s="1"/>
     </row>
     <row r="507" ht="14.25" spans="3:4">
-      <c r="C507" s="42">
+      <c r="C507" s="16">
         <v>1</v>
       </c>
-      <c r="D507" s="43">
+      <c r="D507" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="508" spans="3:15">
-      <c r="C508" s="44"/>
-      <c r="D508" s="45"/>
-      <c r="F508" s="42">
+      <c r="C508" s="36"/>
+      <c r="D508" s="37"/>
+      <c r="F508" s="16">
         <v>1</v>
       </c>
-      <c r="G508" s="54">
+      <c r="G508" s="17">
         <v>0</v>
       </c>
-      <c r="H508" s="43">
+      <c r="H508" s="18">
         <v>1</v>
       </c>
-      <c r="K508" s="58">
+      <c r="K508" s="16">
         <v>1</v>
       </c>
-      <c r="L508" s="59">
+      <c r="L508" s="18">
         <v>2</v>
       </c>
-      <c r="N508" s="62" t="s">
+      <c r="N508" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="O508" s="62" t="s">
+      <c r="O508" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="509" spans="3:15">
-      <c r="C509" s="46">
+      <c r="C509" s="36">
         <v>0</v>
       </c>
-      <c r="D509" s="47">
+      <c r="D509" s="37">
         <v>1</v>
       </c>
-      <c r="F509" s="44"/>
-      <c r="G509" s="55"/>
-      <c r="H509" s="45"/>
-      <c r="K509" s="46"/>
-      <c r="L509" s="47"/>
-      <c r="N509" s="63"/>
-      <c r="O509" s="64"/>
+      <c r="F509" s="36"/>
+      <c r="G509" s="12"/>
+      <c r="H509" s="37"/>
+      <c r="K509" s="36"/>
+      <c r="L509" s="37"/>
+      <c r="N509" s="41"/>
+      <c r="O509" s="11"/>
     </row>
     <row r="510" ht="15.75" spans="3:15">
-      <c r="C510" s="46"/>
-      <c r="D510" s="47"/>
-      <c r="F510" s="46">
+      <c r="C510" s="36"/>
+      <c r="D510" s="37"/>
+      <c r="F510" s="36">
         <v>2</v>
       </c>
-      <c r="G510" s="56">
+      <c r="G510" s="12">
         <v>1</v>
       </c>
-      <c r="H510" s="47">
+      <c r="H510" s="37">
         <v>1</v>
       </c>
-      <c r="K510" s="46">
+      <c r="K510" s="36">
         <v>0</v>
       </c>
-      <c r="L510" s="47">
+      <c r="L510" s="37">
         <v>1</v>
       </c>
-      <c r="N510" s="62" t="s">
+      <c r="N510" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="O510" s="65"/>
+      <c r="O510" s="13"/>
     </row>
     <row r="511" ht="16.5" spans="3:15">
-      <c r="C511" s="46">
+      <c r="C511" s="36">
         <v>1</v>
       </c>
-      <c r="D511" s="47">
+      <c r="D511" s="37">
         <v>1</v>
       </c>
-      <c r="F511" s="48"/>
-      <c r="G511" s="57"/>
-      <c r="H511" s="49"/>
-      <c r="K511" s="46"/>
-      <c r="L511" s="47"/>
-      <c r="N511" s="63"/>
-      <c r="O511" s="65"/>
+      <c r="F511" s="19"/>
+      <c r="G511" s="20"/>
+      <c r="H511" s="21"/>
+      <c r="K511" s="36"/>
+      <c r="L511" s="37"/>
+      <c r="N511" s="41"/>
+      <c r="O511" s="13"/>
     </row>
     <row r="512" ht="14.25" spans="3:15">
-      <c r="C512" s="48"/>
-      <c r="D512" s="49"/>
-      <c r="K512" s="46">
+      <c r="C512" s="19"/>
+      <c r="D512" s="21"/>
+      <c r="K512" s="36">
         <v>1</v>
       </c>
-      <c r="L512" s="47">
+      <c r="L512" s="37">
         <v>1</v>
       </c>
-      <c r="N512" s="62" t="s">
+      <c r="N512" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="O512" s="62" t="s">
+      <c r="O512" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="513" spans="11:15">
-      <c r="K513" s="48"/>
-      <c r="L513" s="49"/>
-      <c r="N513" s="64"/>
-      <c r="O513" s="64"/>
+    <row r="513" ht="14.25" spans="11:15">
+      <c r="K513" s="19"/>
+      <c r="L513" s="21"/>
+      <c r="N513" s="11"/>
+      <c r="O513" s="11"/>
     </row>
     <row r="515" spans="3:4">
-      <c r="C515" s="62" t="s">
+      <c r="C515" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D515" s="62" t="s">
+      <c r="D515" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="516" ht="15.75" spans="3:16">
-      <c r="C516" s="66"/>
-      <c r="D516" s="67"/>
-      <c r="F516" s="78" t="s">
+      <c r="C516" s="41"/>
+      <c r="D516" s="11"/>
+      <c r="F516" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G516" s="69" t="s">
+      <c r="G516" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H516" s="69" t="s">
+      <c r="H516" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="J516" s="68"/>
-      <c r="K516" s="88">
+      <c r="J516" s="13"/>
+      <c r="K516" s="44">
         <v>1</v>
       </c>
-      <c r="L516" s="89">
+      <c r="L516" s="44">
         <v>2</v>
       </c>
-      <c r="M516" s="89">
+      <c r="M516" s="44">
         <v>3</v>
       </c>
-      <c r="N516" s="89">
+      <c r="N516" s="44">
         <v>4</v>
       </c>
-      <c r="O516" s="89">
+      <c r="O516" s="44">
         <v>5</v>
       </c>
-      <c r="P516" s="92"/>
+      <c r="P516" s="2"/>
     </row>
     <row r="517" ht="15.75" spans="3:16">
-      <c r="C517" s="62" t="s">
+      <c r="C517" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D517" s="68"/>
-      <c r="F517" s="79"/>
-      <c r="G517" s="56"/>
-      <c r="H517" s="55"/>
-      <c r="J517" s="68"/>
-      <c r="K517" s="88"/>
-      <c r="L517" s="89"/>
-      <c r="M517" s="89"/>
-      <c r="N517" s="89"/>
-      <c r="O517" s="89"/>
-      <c r="P517" s="92"/>
+      <c r="D517" s="13"/>
+      <c r="F517" s="14"/>
+      <c r="G517" s="12"/>
+      <c r="H517" s="12"/>
+      <c r="J517" s="13"/>
+      <c r="K517" s="44"/>
+      <c r="L517" s="44"/>
+      <c r="M517" s="44"/>
+      <c r="N517" s="44"/>
+      <c r="O517" s="44"/>
+      <c r="P517" s="2"/>
     </row>
     <row r="518" ht="15.75" spans="3:15">
-      <c r="C518" s="66"/>
-      <c r="D518" s="68"/>
-      <c r="F518" s="78" t="s">
+      <c r="C518" s="41"/>
+      <c r="D518" s="13"/>
+      <c r="F518" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G518" s="69" t="s">
+      <c r="G518" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H518" s="69" t="s">
+      <c r="H518" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="I518" s="69" t="s">
+      <c r="I518" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K518" s="62" t="s">
+      <c r="K518" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="L518" s="64"/>
-      <c r="M518" s="64"/>
-      <c r="N518" s="64"/>
-      <c r="O518" s="64"/>
+      <c r="L518" s="11"/>
+      <c r="M518" s="11"/>
+      <c r="N518" s="11"/>
+      <c r="O518" s="11"/>
     </row>
     <row r="519" spans="3:15">
-      <c r="C519" s="62" t="s">
+      <c r="C519" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D519" s="62" t="s">
+      <c r="D519" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F519" s="79"/>
-      <c r="G519" s="56"/>
-      <c r="H519" s="56"/>
-      <c r="I519" s="55"/>
-      <c r="K519" s="64"/>
-      <c r="L519" s="64"/>
-      <c r="M519" s="64"/>
-      <c r="N519" s="64"/>
-      <c r="O519" s="64"/>
+      <c r="F519" s="14"/>
+      <c r="G519" s="12"/>
+      <c r="H519" s="12"/>
+      <c r="I519" s="12"/>
+      <c r="K519" s="11"/>
+      <c r="L519" s="11"/>
+      <c r="M519" s="11"/>
+      <c r="N519" s="11"/>
+      <c r="O519" s="11"/>
     </row>
     <row r="520" spans="3:15">
-      <c r="C520" s="67"/>
-      <c r="D520" s="67"/>
-      <c r="K520" s="64"/>
-      <c r="L520" s="64"/>
-      <c r="M520" s="62" t="s">
+      <c r="C520" s="11"/>
+      <c r="D520" s="11"/>
+      <c r="K520" s="11"/>
+      <c r="L520" s="11"/>
+      <c r="M520" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="N520" s="64"/>
-      <c r="O520" s="64"/>
+      <c r="N520" s="11"/>
+      <c r="O520" s="11"/>
     </row>
     <row r="521" spans="11:15">
-      <c r="K521" s="64"/>
-      <c r="L521" s="64"/>
-      <c r="M521" s="64"/>
-      <c r="N521" s="64"/>
-      <c r="O521" s="64"/>
+      <c r="K521" s="11"/>
+      <c r="L521" s="11"/>
+      <c r="M521" s="11"/>
+      <c r="N521" s="11"/>
+      <c r="O521" s="11"/>
     </row>
     <row r="522" spans="11:15">
-      <c r="K522" s="64"/>
-      <c r="L522" s="64"/>
-      <c r="M522" s="64"/>
-      <c r="N522" s="62" t="s">
+      <c r="K522" s="11"/>
+      <c r="L522" s="11"/>
+      <c r="M522" s="11"/>
+      <c r="N522" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="O522" s="64"/>
+      <c r="O522" s="11"/>
     </row>
     <row r="523" spans="11:15">
-      <c r="K523" s="64"/>
-      <c r="L523" s="64"/>
-      <c r="M523" s="64"/>
-      <c r="N523" s="64"/>
-      <c r="O523" s="64"/>
+      <c r="K523" s="11"/>
+      <c r="L523" s="11"/>
+      <c r="M523" s="11"/>
+      <c r="N523" s="11"/>
+      <c r="O523" s="11"/>
     </row>
     <row r="524" spans="11:15">
-      <c r="K524" s="64"/>
-      <c r="L524" s="62" t="s">
+      <c r="K524" s="11"/>
+      <c r="L524" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M524" s="64"/>
-      <c r="N524" s="64"/>
-      <c r="O524" s="64"/>
+      <c r="M524" s="11"/>
+      <c r="N524" s="11"/>
+      <c r="O524" s="11"/>
     </row>
     <row r="525" spans="11:15">
-      <c r="K525" s="64"/>
-      <c r="L525" s="64"/>
-      <c r="M525" s="64"/>
-      <c r="N525" s="64"/>
-      <c r="O525" s="64"/>
+      <c r="K525" s="11"/>
+      <c r="L525" s="11"/>
+      <c r="M525" s="11"/>
+      <c r="N525" s="11"/>
+      <c r="O525" s="11"/>
     </row>
     <row r="526" spans="11:15">
-      <c r="K526" s="64"/>
-      <c r="L526" s="64"/>
-      <c r="M526" s="64"/>
-      <c r="N526" s="64"/>
-      <c r="O526" s="62" t="s">
+      <c r="K526" s="11"/>
+      <c r="L526" s="11"/>
+      <c r="M526" s="11"/>
+      <c r="N526" s="11"/>
+      <c r="O526" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="527" spans="11:15">
-      <c r="K527" s="64"/>
-      <c r="L527" s="64"/>
-      <c r="M527" s="64"/>
-      <c r="N527" s="64"/>
-      <c r="O527" s="64"/>
+      <c r="K527" s="11"/>
+      <c r="L527" s="11"/>
+      <c r="M527" s="11"/>
+      <c r="N527" s="11"/>
+      <c r="O527" s="11"/>
     </row>
     <row r="528" spans="11:15">
-      <c r="K528" s="90" t="s">
+      <c r="K528" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L528" s="90" t="s">
+      <c r="L528" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="M528" s="90" t="s">
+      <c r="M528" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="N528" s="90" t="s">
+      <c r="N528" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="O528" s="90" t="s">
+      <c r="O528" s="15" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="529" spans="11:15">
-      <c r="K529" s="91"/>
-      <c r="L529" s="91"/>
-      <c r="M529" s="91"/>
-      <c r="N529" s="91"/>
-      <c r="O529" s="91"/>
+      <c r="K529" s="15"/>
+      <c r="L529" s="15"/>
+      <c r="M529" s="15"/>
+      <c r="N529" s="15"/>
+      <c r="O529" s="15"/>
     </row>
     <row r="536" ht="15.75" spans="3:11">
-      <c r="C536" s="69" t="s">
+      <c r="C536" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D536" s="55"/>
-      <c r="E536" s="68"/>
-      <c r="F536" s="68"/>
-      <c r="G536" s="68"/>
-      <c r="H536" s="68"/>
-      <c r="I536" s="68"/>
-      <c r="J536" s="68"/>
-      <c r="K536" s="68"/>
+      <c r="D536" s="12"/>
+      <c r="E536" s="13"/>
+      <c r="F536" s="13"/>
+      <c r="G536" s="13"/>
+      <c r="H536" s="13"/>
+      <c r="I536" s="13"/>
+      <c r="J536" s="13"/>
+      <c r="K536" s="13"/>
     </row>
     <row r="537" ht="15.75" spans="3:11">
-      <c r="C537" s="55"/>
-      <c r="D537" s="55"/>
-      <c r="E537" s="68"/>
-      <c r="F537" s="68"/>
-      <c r="G537" s="68"/>
-      <c r="H537" s="68"/>
-      <c r="I537" s="68"/>
-      <c r="J537" s="68"/>
-      <c r="K537" s="68"/>
+      <c r="C537" s="12"/>
+      <c r="D537" s="12"/>
+      <c r="E537" s="13"/>
+      <c r="F537" s="13"/>
+      <c r="G537" s="13"/>
+      <c r="H537" s="13"/>
+      <c r="I537" s="13"/>
+      <c r="J537" s="13"/>
+      <c r="K537" s="13"/>
     </row>
     <row r="538" ht="16.5" spans="3:11">
-      <c r="C538" s="68"/>
-      <c r="D538" s="68"/>
-      <c r="E538" s="68"/>
-      <c r="F538" s="68"/>
-      <c r="G538" s="68"/>
-      <c r="H538" s="68"/>
-      <c r="I538" s="68"/>
-      <c r="J538" s="68"/>
-      <c r="K538" s="68"/>
+      <c r="C538" s="13"/>
+      <c r="D538" s="13"/>
+      <c r="E538" s="13"/>
+      <c r="F538" s="13"/>
+      <c r="G538" s="13"/>
+      <c r="H538" s="13"/>
+      <c r="I538" s="13"/>
+      <c r="J538" s="13"/>
+      <c r="K538" s="13"/>
     </row>
     <row r="539" ht="15.75" spans="3:11">
-      <c r="C539" s="70">
+      <c r="C539" s="16">
         <v>0</v>
       </c>
-      <c r="D539" s="71">
+      <c r="D539" s="17">
         <v>2</v>
       </c>
-      <c r="E539" s="80">
+      <c r="E539" s="18">
         <v>0</v>
       </c>
-      <c r="F539" s="68"/>
-      <c r="G539" s="42">
+      <c r="F539" s="13"/>
+      <c r="G539" s="16">
         <v>1</v>
       </c>
-      <c r="H539" s="59">
+      <c r="H539" s="18">
         <v>2</v>
       </c>
-      <c r="I539" s="68"/>
-      <c r="J539" s="58">
+      <c r="I539" s="13"/>
+      <c r="J539" s="16">
         <v>0</v>
       </c>
-      <c r="K539" s="59">
+      <c r="K539" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="540" ht="15.75" spans="3:11">
-      <c r="C540" s="72"/>
-      <c r="D540" s="73"/>
-      <c r="E540" s="81"/>
-      <c r="F540" s="69" t="s">
+      <c r="C540" s="36"/>
+      <c r="D540" s="27"/>
+      <c r="E540" s="37"/>
+      <c r="F540" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G540" s="44"/>
-      <c r="H540" s="47"/>
-      <c r="I540" s="68"/>
-      <c r="J540" s="46"/>
-      <c r="K540" s="47"/>
+      <c r="G540" s="36"/>
+      <c r="H540" s="37"/>
+      <c r="I540" s="13"/>
+      <c r="J540" s="36"/>
+      <c r="K540" s="37"/>
     </row>
     <row r="541" ht="15.75" spans="3:11">
-      <c r="C541" s="74">
+      <c r="C541" s="36">
         <v>0</v>
       </c>
-      <c r="D541" s="75">
+      <c r="D541" s="27">
         <v>4</v>
       </c>
-      <c r="E541" s="82">
+      <c r="E541" s="37">
         <v>3</v>
       </c>
-      <c r="F541" s="55"/>
-      <c r="G541" s="44">
+      <c r="F541" s="12"/>
+      <c r="G541" s="36">
         <v>0</v>
       </c>
-      <c r="H541" s="47">
+      <c r="H541" s="37">
         <v>1</v>
       </c>
-      <c r="I541" s="68"/>
-      <c r="J541" s="46">
+      <c r="I541" s="13"/>
+      <c r="J541" s="36">
         <v>3</v>
       </c>
-      <c r="K541" s="47">
+      <c r="K541" s="37">
         <v>7</v>
       </c>
     </row>
     <row r="542" ht="15.75" spans="3:11">
-      <c r="C542" s="74"/>
-      <c r="D542" s="75"/>
-      <c r="E542" s="82"/>
-      <c r="F542" s="68"/>
-      <c r="G542" s="44"/>
-      <c r="H542" s="47"/>
-      <c r="I542" s="68"/>
-      <c r="J542" s="46"/>
-      <c r="K542" s="47"/>
+      <c r="C542" s="36"/>
+      <c r="D542" s="27"/>
+      <c r="E542" s="37"/>
+      <c r="F542" s="13"/>
+      <c r="G542" s="36"/>
+      <c r="H542" s="37"/>
+      <c r="I542" s="13"/>
+      <c r="J542" s="36"/>
+      <c r="K542" s="37"/>
     </row>
     <row r="543" ht="15.75" spans="3:11">
-      <c r="C543" s="74">
+      <c r="C543" s="36">
         <v>1</v>
       </c>
-      <c r="D543" s="75">
+      <c r="D543" s="27">
         <v>0</v>
       </c>
-      <c r="E543" s="82">
+      <c r="E543" s="37">
         <v>4</v>
       </c>
-      <c r="F543" s="68"/>
-      <c r="G543" s="44">
+      <c r="F543" s="13"/>
+      <c r="G543" s="36">
         <v>1</v>
       </c>
-      <c r="H543" s="47">
+      <c r="H543" s="37">
         <v>1</v>
       </c>
-      <c r="I543" s="68"/>
-      <c r="J543" s="46">
+      <c r="I543" s="13"/>
+      <c r="J543" s="36">
         <v>5</v>
       </c>
-      <c r="K543" s="47">
+      <c r="K543" s="37">
         <v>6</v>
       </c>
     </row>
     <row r="544" ht="16.5" spans="3:11">
-      <c r="C544" s="76"/>
-      <c r="D544" s="77"/>
-      <c r="E544" s="83"/>
-      <c r="F544" s="68"/>
-      <c r="G544" s="84"/>
-      <c r="H544" s="49"/>
-      <c r="I544" s="68"/>
-      <c r="J544" s="48"/>
-      <c r="K544" s="49"/>
+      <c r="C544" s="19"/>
+      <c r="D544" s="20"/>
+      <c r="E544" s="21"/>
+      <c r="F544" s="13"/>
+      <c r="G544" s="19"/>
+      <c r="H544" s="21"/>
+      <c r="I544" s="13"/>
+      <c r="J544" s="19"/>
+      <c r="K544" s="21"/>
     </row>
     <row r="545" ht="15.75" spans="3:11">
-      <c r="C545" s="68"/>
-      <c r="D545" s="68"/>
-      <c r="E545" s="68"/>
-      <c r="F545" s="68"/>
-      <c r="G545" s="68"/>
-      <c r="H545" s="68"/>
-      <c r="I545" s="68"/>
-      <c r="J545" s="68"/>
-      <c r="K545" s="68"/>
+      <c r="C545" s="13"/>
+      <c r="D545" s="13"/>
+      <c r="E545" s="13"/>
+      <c r="F545" s="13"/>
+      <c r="G545" s="13"/>
+      <c r="H545" s="13"/>
+      <c r="I545" s="13"/>
+      <c r="J545" s="13"/>
+      <c r="K545" s="13"/>
     </row>
     <row r="546" ht="15.75" spans="3:11">
-      <c r="C546" s="68"/>
-      <c r="D546" s="68"/>
-      <c r="E546" s="68"/>
-      <c r="F546" s="68"/>
-      <c r="G546" s="68"/>
-      <c r="H546" s="68"/>
-      <c r="I546" s="68"/>
-      <c r="J546" s="68"/>
-      <c r="K546" s="68"/>
+      <c r="C546" s="13"/>
+      <c r="D546" s="13"/>
+      <c r="E546" s="13"/>
+      <c r="F546" s="13"/>
+      <c r="G546" s="13"/>
+      <c r="H546" s="13"/>
+      <c r="I546" s="13"/>
+      <c r="J546" s="13"/>
+      <c r="K546" s="13"/>
     </row>
     <row r="547" ht="15.75" spans="3:11">
-      <c r="C547" s="62" t="s">
+      <c r="C547" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D547" s="68"/>
-      <c r="E547" s="68"/>
-      <c r="F547" s="68"/>
-      <c r="G547" s="85" t="s">
+      <c r="D547" s="13"/>
+      <c r="E547" s="13"/>
+      <c r="F547" s="13"/>
+      <c r="G547" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="H547" s="62" t="s">
+      <c r="H547" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="I547" s="68"/>
-      <c r="J547" s="68"/>
-      <c r="K547" s="68"/>
+      <c r="I547" s="13"/>
+      <c r="J547" s="13"/>
+      <c r="K547" s="13"/>
     </row>
     <row r="548" ht="15.75" spans="3:11">
-      <c r="C548" s="66"/>
-      <c r="D548" s="68"/>
-      <c r="E548" s="68"/>
-      <c r="F548" s="69" t="s">
+      <c r="C548" s="41"/>
+      <c r="D548" s="13"/>
+      <c r="E548" s="13"/>
+      <c r="F548" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G548" s="86"/>
-      <c r="H548" s="64"/>
-      <c r="I548" s="68"/>
-      <c r="J548" s="68"/>
-      <c r="K548" s="68"/>
+      <c r="G548" s="42"/>
+      <c r="H548" s="11"/>
+      <c r="I548" s="13"/>
+      <c r="J548" s="13"/>
+      <c r="K548" s="13"/>
     </row>
     <row r="549" ht="15.75" spans="3:11">
-      <c r="C549" s="62" t="s">
+      <c r="C549" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D549" s="62" t="s">
+      <c r="D549" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E549" s="68"/>
-      <c r="F549" s="56"/>
-      <c r="G549" s="62" t="s">
+      <c r="E549" s="13"/>
+      <c r="F549" s="12"/>
+      <c r="G549" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H549" s="68"/>
-      <c r="I549" s="68"/>
-      <c r="J549" s="68"/>
-      <c r="K549" s="68"/>
+      <c r="H549" s="13"/>
+      <c r="I549" s="13"/>
+      <c r="J549" s="13"/>
+      <c r="K549" s="13"/>
     </row>
     <row r="550" ht="15.75" spans="3:11">
-      <c r="C550" s="64"/>
-      <c r="D550" s="64"/>
-      <c r="E550" s="68"/>
-      <c r="F550" s="68"/>
-      <c r="G550" s="64"/>
-      <c r="H550" s="68"/>
-      <c r="I550" s="68"/>
-      <c r="J550" s="68"/>
-      <c r="K550" s="68"/>
+      <c r="C550" s="11"/>
+      <c r="D550" s="11"/>
+      <c r="E550" s="13"/>
+      <c r="F550" s="13"/>
+      <c r="G550" s="11"/>
+      <c r="H550" s="13"/>
+      <c r="I550" s="13"/>
+      <c r="J550" s="13"/>
+      <c r="K550" s="13"/>
     </row>
     <row r="551" ht="15.75" spans="3:11">
-      <c r="C551" s="62" t="s">
+      <c r="C551" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D551" s="62" t="s">
+      <c r="D551" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E551" s="68"/>
-      <c r="F551" s="68"/>
-      <c r="G551" s="85" t="s">
+      <c r="E551" s="13"/>
+      <c r="F551" s="13"/>
+      <c r="G551" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="H551" s="62" t="s">
+      <c r="H551" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I551" s="56"/>
-      <c r="J551" s="68"/>
-      <c r="K551" s="68"/>
+      <c r="I551" s="12"/>
+      <c r="J551" s="13"/>
+      <c r="K551" s="13"/>
     </row>
     <row r="552" ht="15.75" spans="3:11">
-      <c r="C552" s="64"/>
-      <c r="D552" s="64"/>
-      <c r="E552" s="68"/>
-      <c r="F552" s="68"/>
-      <c r="G552" s="86"/>
-      <c r="H552" s="64"/>
-      <c r="I552" s="56"/>
-      <c r="J552" s="68"/>
-      <c r="K552" s="68"/>
+      <c r="C552" s="11"/>
+      <c r="D552" s="11"/>
+      <c r="E552" s="13"/>
+      <c r="F552" s="13"/>
+      <c r="G552" s="42"/>
+      <c r="H552" s="11"/>
+      <c r="I552" s="12"/>
+      <c r="J552" s="13"/>
+      <c r="K552" s="13"/>
     </row>
     <row r="556" spans="3:9">
-      <c r="C556" s="62" t="s">
+      <c r="C556" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D556" s="69" t="s">
+      <c r="D556" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E556" s="62" t="s">
+      <c r="E556" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F556" s="69" t="s">
+      <c r="F556" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G556" s="62" t="s">
+      <c r="G556" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H556" s="41"/>
-      <c r="I556" s="41"/>
+      <c r="H556" s="5"/>
+      <c r="I556" s="5"/>
     </row>
     <row r="557" spans="3:9">
-      <c r="C557" s="63"/>
-      <c r="D557" s="56"/>
-      <c r="E557" s="64"/>
-      <c r="F557" s="55"/>
-      <c r="G557" s="67"/>
-      <c r="H557" s="41"/>
-      <c r="I557" s="41"/>
+      <c r="C557" s="41"/>
+      <c r="D557" s="12"/>
+      <c r="E557" s="11"/>
+      <c r="F557" s="12"/>
+      <c r="G557" s="11"/>
+      <c r="H557" s="5"/>
+      <c r="I557" s="5"/>
     </row>
     <row r="558" ht="15.75" spans="6:7">
-      <c r="F558" s="68"/>
-      <c r="G558" s="68"/>
+      <c r="F558" s="13"/>
+      <c r="G558" s="13"/>
     </row>
     <row r="559" ht="15.75" spans="3:7">
-      <c r="C559" s="62" t="s">
+      <c r="C559" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D559" s="69" t="s">
+      <c r="D559" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E559" s="62" t="s">
+      <c r="E559" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F559" s="69" t="s">
+      <c r="F559" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G559" s="68"/>
+      <c r="G559" s="13"/>
     </row>
     <row r="560" spans="3:7">
-      <c r="C560" s="64"/>
-      <c r="D560" s="56"/>
-      <c r="E560" s="63"/>
-      <c r="F560" s="55"/>
-      <c r="G560" s="62" t="s">
+      <c r="C560" s="11"/>
+      <c r="D560" s="12"/>
+      <c r="E560" s="41"/>
+      <c r="F560" s="12"/>
+      <c r="G560" s="11" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="561" spans="3:7">
-      <c r="C561" s="62" t="s">
+      <c r="C561" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D561" s="69" t="s">
+      <c r="D561" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E561" s="62" t="s">
+      <c r="E561" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F561" s="55"/>
-      <c r="G561" s="67"/>
+      <c r="F561" s="12"/>
+      <c r="G561" s="11"/>
     </row>
     <row r="562" spans="3:7">
-      <c r="C562" s="64"/>
-      <c r="D562" s="56"/>
-      <c r="E562" s="64"/>
-      <c r="F562" s="55"/>
-      <c r="G562" s="62" t="s">
+      <c r="C562" s="11"/>
+      <c r="D562" s="12"/>
+      <c r="E562" s="11"/>
+      <c r="F562" s="12"/>
+      <c r="G562" s="11" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="563" spans="5:7">
-      <c r="E563" s="87" t="s">
+      <c r="E563" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="F563" s="55"/>
-      <c r="G563" s="67"/>
+      <c r="F563" s="12"/>
+      <c r="G563" s="11"/>
     </row>
     <row r="564" ht="15.75" spans="5:7">
-      <c r="E564" s="64"/>
-      <c r="F564" s="55"/>
-      <c r="G564" s="68"/>
+      <c r="E564" s="11"/>
+      <c r="F564" s="12"/>
+      <c r="G564" s="13"/>
     </row>
     <row r="565" ht="15.75" spans="6:7">
-      <c r="F565" s="68"/>
-      <c r="G565" s="68"/>
+      <c r="F565" s="13"/>
+      <c r="G565" s="13"/>
     </row>
-    <row r="566" ht="15.75" spans="1:7">
-      <c r="A566" s="40"/>
-      <c r="B566" s="40"/>
-      <c r="C566" s="62" t="s">
+    <row r="566" ht="15.75" spans="3:7">
+      <c r="C566" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D566" s="69" t="s">
+      <c r="D566" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E566" s="62" t="s">
+      <c r="E566" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F566" s="69" t="s">
+      <c r="F566" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G566" s="65"/>
+      <c r="G566" s="13"/>
     </row>
-    <row r="567" spans="1:7">
-      <c r="A567" s="40"/>
-      <c r="B567" s="40"/>
-      <c r="C567" s="64"/>
-      <c r="D567" s="56"/>
-      <c r="E567" s="63"/>
-      <c r="F567" s="56"/>
-      <c r="G567" s="62" t="s">
+    <row r="567" spans="3:7">
+      <c r="C567" s="11"/>
+      <c r="D567" s="12"/>
+      <c r="E567" s="41"/>
+      <c r="F567" s="12"/>
+      <c r="G567" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="568" spans="1:7">
-      <c r="A568" s="40"/>
-      <c r="B568" s="40"/>
-      <c r="E568" s="62" t="s">
+    <row r="568" spans="5:7">
+      <c r="E568" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F568" s="56"/>
-      <c r="G568" s="64"/>
+      <c r="F568" s="12"/>
+      <c r="G568" s="11"/>
     </row>
-    <row r="569" spans="1:7">
-      <c r="A569" s="40"/>
-      <c r="B569" s="40"/>
-      <c r="E569" s="64"/>
-      <c r="F569" s="56"/>
-      <c r="G569" s="62" t="s">
+    <row r="569" spans="5:7">
+      <c r="E569" s="11"/>
+      <c r="F569" s="12"/>
+      <c r="G569" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="570" spans="1:7">
-      <c r="A570" s="40"/>
-      <c r="B570" s="40"/>
-      <c r="C570" s="62" t="s">
+    <row r="570" spans="3:7">
+      <c r="C570" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D570" s="69" t="s">
+      <c r="D570" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E570" s="62" t="s">
+      <c r="E570" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F570" s="56"/>
-      <c r="G570" s="64"/>
+      <c r="F570" s="12"/>
+      <c r="G570" s="11"/>
     </row>
-    <row r="571" ht="15.75" spans="1:7">
-      <c r="A571" s="40"/>
-      <c r="B571" s="40"/>
-      <c r="C571" s="64"/>
-      <c r="D571" s="56"/>
-      <c r="E571" s="64"/>
-      <c r="F571" s="56"/>
-      <c r="G571" s="65"/>
+    <row r="571" ht="15.75" spans="3:7">
+      <c r="C571" s="11"/>
+      <c r="D571" s="12"/>
+      <c r="E571" s="11"/>
+      <c r="F571" s="12"/>
+      <c r="G571" s="13"/>
     </row>
-    <row r="572" ht="15.75" spans="1:7">
-      <c r="A572" s="40"/>
-      <c r="B572" s="40"/>
-      <c r="C572" s="40"/>
-      <c r="D572" s="40"/>
-      <c r="E572" s="87" t="s">
+    <row r="572" ht="15.75" spans="5:7">
+      <c r="E572" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="F572" s="56"/>
-      <c r="G572" s="65"/>
+      <c r="F572" s="12"/>
+      <c r="G572" s="13"/>
     </row>
-    <row r="573" ht="15.75" spans="3:7">
-      <c r="C573" s="40"/>
-      <c r="D573" s="40"/>
-      <c r="E573" s="64"/>
-      <c r="F573" s="56"/>
-      <c r="G573" s="68"/>
+    <row r="573" ht="15.75" spans="5:7">
+      <c r="E573" s="11"/>
+      <c r="F573" s="12"/>
+      <c r="G573" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="588">
